--- a/organizacion/ListaDeTareas.xlsx
+++ b/organizacion/ListaDeTareas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>Tareas</t>
   </si>
@@ -40,13 +40,259 @@
   </si>
   <si>
     <t>Modelo de Casos de Uso</t>
+  </si>
+  <si>
+    <t>CORRECCIONES EVELINA</t>
+  </si>
+  <si>
+    <t>TEMA</t>
+  </si>
+  <si>
+    <t>DETALLE</t>
+  </si>
+  <si>
+    <t>DIRECTA</t>
+  </si>
+  <si>
+    <t>POSIBLE SOLUCION</t>
+  </si>
+  <si>
+    <t>TRABAJO PARA HACER</t>
+  </si>
+  <si>
+    <t>RESPONSABLE</t>
+  </si>
+  <si>
+    <t>MODELO DE DOMINIO</t>
+  </si>
+  <si>
+    <t>a) central</t>
+  </si>
+  <si>
+    <t>b) sucursal</t>
+  </si>
+  <si>
+    <t>no hay</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>Reemplazar archivo (el que presentamos no va, tomarlo del repositorio)</t>
+  </si>
+  <si>
+    <t>DIFERENCIA ENTRE CUN</t>
+  </si>
+  <si>
+    <t>i) el pedido de sucursal tiene detalle  - ii) asociar proveedores con orden de compra, iii) agregar objeto mercaderia iv) agregar otros objetos que faltan (figuran en CU pero no aparecen en MD)</t>
+  </si>
+  <si>
+    <t>TIEMPO ESTIMADO DE CORRECCION</t>
+  </si>
+  <si>
+    <t>EJECUCION DE SOLUCION</t>
+  </si>
+  <si>
+    <t>1 HS</t>
+  </si>
+  <si>
+    <t>ENTRE 1) SOLICITAR MATERIA PRIMA Y 2) RECIBIR MATERIA PRIMA</t>
+  </si>
+  <si>
+    <t>I) corregir nombres ii) corregir entidades iii) verificar actores que faltan en diagrama</t>
+  </si>
+  <si>
+    <t>fernando</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>REVISAR TERMINOLOGIA</t>
+  </si>
+  <si>
+    <t>ORDEN O SOLICITUD ?</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>favio</t>
+  </si>
+  <si>
+    <t>MODELO DE CU</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>yesica</t>
+  </si>
+  <si>
+    <t>0 min</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE ESTADOS</t>
+  </si>
+  <si>
+    <t>FALTAN</t>
+  </si>
+  <si>
+    <t>I) corregir el de logistica no se sabe a cual se refiere ii) verificar cual falta (en la ultima version del repo estan los ultimos que cree)  iii) quiza haya que ponerlos en word (solo estan en .dia)</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>ESPECIFICACION DE CU</t>
+  </si>
+  <si>
+    <t>ORGANIZACION ESPECIFICACION DE CU</t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>I) pregunta si corresponde a central o sucursal, habria que discutir como se define en el diagrama de caso de uso stock - central ii) en caso de que haya que realizar correcciones se creara uno nuevo o se eliminara de donde esta actualmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Se deben detallar mas (entre lo que hace el sistema y lo que hace el operador) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) organizar las especificaciones por SISTEMA - SUBSISTEMA (central/sucursal) </t>
+  </si>
+  <si>
+    <t>i) no solamente se cambian estados sino que se deben definir con mas precision (cada uno deberia revisar las Especificaciones de CU que le toco)</t>
+  </si>
+  <si>
+    <t>1 hora</t>
+  </si>
+  <si>
+    <t>i) cambiar nombre en la parte superios</t>
+  </si>
+  <si>
+    <t>ver DIAGRAMA DE ESTADO con MODELO DE DOMINIO</t>
+  </si>
+  <si>
+    <t>controlar incoherencias</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE CU X ACTOR</t>
+  </si>
+  <si>
+    <t>creo que falta crearla, se puede tomar como ejemplo la de central</t>
+  </si>
+  <si>
+    <t>i) verificar los actores que ya estan completarlos ii) agregar los actores y CU que faltarian</t>
+  </si>
+  <si>
+    <t>sergio</t>
+  </si>
+  <si>
+    <t>completo</t>
+  </si>
+  <si>
+    <t>completo*</t>
+  </si>
+  <si>
+    <t>a) SOLICITAR REPOSICION DE STOCK DE MERCADERIA</t>
+  </si>
+  <si>
+    <t>b) precondiciones y pos condiciones</t>
+  </si>
+  <si>
+    <t>i) controlar que se correspondan con el DIAGRAMA DE ESTADOS del objeto estudiado (el pre es de donde viene y el pos es como queda)</t>
+  </si>
+  <si>
+    <t>Diagramas de caso de uso</t>
+  </si>
+  <si>
+    <t>Diagramas de caso de uso x actor</t>
+  </si>
+  <si>
+    <t>Especificacion de caso de uso</t>
+  </si>
+  <si>
+    <t>glosario</t>
+  </si>
+  <si>
+    <t>Diagramas de estado</t>
+  </si>
+  <si>
+    <t>completo#</t>
+  </si>
+  <si>
+    <t>Diagrama de actividades</t>
+  </si>
+  <si>
+    <t>central - stock - compras - confeccion - logistica</t>
+  </si>
+  <si>
+    <t>todos los objetos (o solo central?)</t>
+  </si>
+  <si>
+    <t>Sucursal y central</t>
+  </si>
+  <si>
+    <t>Referencias de estados</t>
+  </si>
+  <si>
+    <t>completo = finalizado completamente, nada para hacer</t>
+  </si>
+  <si>
+    <t>incompleto = con mas del %50 por hacer</t>
+  </si>
+  <si>
+    <t>completo* con inconsistencias o faltantes</t>
+  </si>
+  <si>
+    <t>completo# revisar si falta algo</t>
+  </si>
+  <si>
+    <t>OTRAS CORRECCIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN MODELO DE NEGOCIO </t>
+  </si>
+  <si>
+    <t>a) Realice correcciones al texto pero no a las imagenes (no me dio el tiempo)</t>
+  </si>
+  <si>
+    <t>b) verificar que se corresponda segun lo que esta en diagrama responsabilidad de actores.dia</t>
+  </si>
+  <si>
+    <t>i) verificar que las imagenes se correspondan con lo descripto por el texto</t>
+  </si>
+  <si>
+    <t>i) habria que revisar si todos los procesos lo realizan quienes estan definidos (y no otros) dejamos un mapa segun las responsabilidades de cada actor en dicho archivo</t>
+  </si>
+  <si>
+    <t>notas</t>
+  </si>
+  <si>
+    <t>ver "correcciones evelina"</t>
+  </si>
+  <si>
+    <t>falta  el de sucursal - stock  - y corregir algunos de central (ver "otras correcciones")</t>
+  </si>
+  <si>
+    <t>falta actualizarlo segun nuevos casos de uso y verificar si estan completos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,8 +308,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +326,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -89,11 +372,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,7 +480,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -218,7 +514,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,19 +689,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,30 +716,528 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
       <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="105">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="G34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -451,24 +1246,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/organizacion/ListaDeTareas.xlsx
+++ b/organizacion/ListaDeTareas.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Version 1" sheetId="5" r:id="rId1"/>
+    <sheet name="Primera Corección" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -291,8 +290,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +358,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -368,15 +373,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,12 +402,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,6 +503,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -514,6 +538,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,582 +714,608 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="H6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="60">
-      <c r="A18">
+      <c r="G14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>23</v>
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.75</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="105">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="G34" s="5"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/organizacion/ListaDeTareas.xlsx
+++ b/organizacion/ListaDeTareas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="7995" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>Tareas</t>
   </si>
@@ -176,9 +176,6 @@
     <t>1 hora</t>
   </si>
   <si>
-    <t>i) cambiar nombre en la parte superios</t>
-  </si>
-  <si>
     <t>ver DIAGRAMA DE ESTADO con MODELO DE DOMINIO</t>
   </si>
   <si>
@@ -285,13 +282,34 @@
   </si>
   <si>
     <t>falta actualizarlo segun nuevos casos de uso y verificar si estan completos</t>
+  </si>
+  <si>
+    <t>i) cambiar nombre en la parte superior</t>
+  </si>
+  <si>
+    <t>referencias</t>
+  </si>
+  <si>
+    <t>ver al final (jueves o viernes)</t>
+  </si>
+  <si>
+    <t>en accion</t>
+  </si>
+  <si>
+    <t>para revisar</t>
+  </si>
+  <si>
+    <t>hecho</t>
+  </si>
+  <si>
+    <t>pendiente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,24 +348,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,6 +361,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,28 +410,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +526,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -538,7 +560,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,14 +735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
@@ -730,194 +751,194 @@
     <col min="5" max="5" width="75.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -925,14 +946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
@@ -942,231 +963,234 @@
     <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="18">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:8">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="12">
         <v>0.75</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>0.4</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1185,14 +1209,14 @@
       <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>0.33</v>
       </c>
       <c r="H11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -1200,119 +1224,157 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>0.15</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:8">
+      <c r="A13" s="17">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="15" spans="1:8">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="H17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
+    <row r="19" spans="1:8">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/organizacion/ListaDeTareas.xlsx
+++ b/organizacion/ListaDeTareas.xlsx
@@ -950,7 +950,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/organizacion/ListaDeTareas.xlsx
+++ b/organizacion/ListaDeTareas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>Tareas</t>
   </si>
@@ -303,6 +303,33 @@
   </si>
   <si>
     <t>pendiente</t>
+  </si>
+  <si>
+    <t>Notas personales</t>
+  </si>
+  <si>
+    <t>Yesica</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Favio</t>
+  </si>
+  <si>
+    <t>los mios estan hechos todos</t>
+  </si>
+  <si>
+    <t>de mi parte ya no falta ninguno, aunque hay notas que deje en el resto de sus objetos para revisar.</t>
+  </si>
+  <si>
+    <t>creo que mi parte esta completa, luego debo revisarlo por ultima vez</t>
+  </si>
+  <si>
+    <t>las mias estan todas actualizadas, por favor revisen las notas que les deje a c/u. (revisar cambios segun diagrama de estados y diagrama de responsabilidad de actores)</t>
   </si>
 </sst>
 </file>
@@ -333,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +409,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -410,13 +461,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,18 +473,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,193 +833,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -961,417 +1042,520 @@
     <col min="5" max="5" width="54.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="15" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="17">
+      <c r="I2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="19">
         <v>0</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="26">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="26">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11">
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" ht="75">
+      <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="28">
         <v>0.75</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="I8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="26">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" ht="135">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="29">
         <v>0.4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="I10" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="30">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="29">
         <v>0.33</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" t="s">
+      <c r="I11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" ht="45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="29">
         <v>0.15</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="17">
+      <c r="I12" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="18">
         <v>8</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="13">
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="30">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="31">
         <v>0.5</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="24">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="26">
         <v>1</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="26">
         <v>1</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="G19" s="1"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>95</v>
       </c>

--- a/organizacion/ListaDeTareas.xlsx
+++ b/organizacion/ListaDeTareas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Version 1" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
   <si>
     <t>Tareas</t>
   </si>
@@ -281,9 +281,6 @@
     <t>falta  el de sucursal - stock  - y corregir algunos de central (ver "otras correcciones")</t>
   </si>
   <si>
-    <t>falta actualizarlo segun nuevos casos de uso y verificar si estan completos</t>
-  </si>
-  <si>
     <t>i) cambiar nombre en la parte superior</t>
   </si>
   <si>
@@ -330,6 +327,33 @@
   </si>
   <si>
     <t>las mias estan todas actualizadas, por favor revisen las notas que les deje a c/u. (revisar cambios segun diagrama de estados y diagrama de responsabilidad de actores)</t>
+  </si>
+  <si>
+    <t>central (stock - compras - confeccion - logistica)/ sucursal (ventas - logistica)</t>
+  </si>
+  <si>
+    <t>incompleto</t>
+  </si>
+  <si>
+    <t>central / stock - compras - confeccion - logistica</t>
+  </si>
+  <si>
+    <t>falta actualizarlo segun nuevos casos de uso y verificar si estan completos. Tambien faltan agregar las clases</t>
+  </si>
+  <si>
+    <t>fernando/favio</t>
+  </si>
+  <si>
+    <t>sergio/favio</t>
+  </si>
+  <si>
+    <t>sergio/yesica</t>
+  </si>
+  <si>
+    <t>falta el de sucursal/ ventas - stock</t>
+  </si>
+  <si>
+    <t>falta central - compras  / sucursal - ventas - stock</t>
   </si>
 </sst>
 </file>
@@ -819,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -856,7 +880,9 @@
       <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
@@ -872,7 +898,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>60</v>
@@ -899,22 +925,28 @@
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
@@ -925,9 +957,11 @@
         <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>60</v>
       </c>
@@ -941,13 +975,13 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -957,11 +991,15 @@
       <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
@@ -970,7 +1008,9 @@
       <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1059,7 +1099,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
       <c r="I1" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -1091,16 +1131,16 @@
         <v>24</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1267,7 +1307,7 @@
         <v>43</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
@@ -1323,7 +1363,7 @@
         <v>43</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="22"/>
@@ -1355,7 +1395,7 @@
         <v>52</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
@@ -1371,7 +1411,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>46</v>
@@ -1383,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
@@ -1532,32 +1572,32 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/organizacion/ListaDeTareas.xlsx
+++ b/organizacion/ListaDeTareas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version 1" sheetId="5" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -535,11 +535,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -843,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1070,9 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1163,7 +1157,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>26</v>
@@ -1188,7 +1182,9 @@
       <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
       <c r="H4" s="18" t="s">
         <v>26</v>
       </c>
@@ -1282,28 +1278,28 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="75">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>0.75</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I8" s="20" t="s">
@@ -1344,22 +1340,22 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="135">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="26">
         <v>0.4</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="20" t="s">
@@ -1370,28 +1366,28 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="4">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="26">
         <v>0.33</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="24" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="20" t="s">
@@ -1402,24 +1398,24 @@
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="26">
         <v>0.15</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="20" t="s">
@@ -1456,28 +1452,28 @@
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="30">
+      <c r="A14" s="24">
         <v>9</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="26">
         <v>0.5</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="24" t="s">
         <v>52</v>
       </c>
       <c r="I14" s="20"/>
@@ -1492,7 +1488,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="4"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
@@ -1500,16 +1496,16 @@
       <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
       <c r="K16" s="22"/>
